--- a/Data/OOU_SA_data.xlsx
+++ b/Data/OOU_SA_data.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OO" sheetId="3" r:id="rId2"/>
+    <sheet name="oou" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="17">
   <si>
     <t>Genotype</t>
   </si>
@@ -68,6 +70,24 @@
   </si>
   <si>
     <t>SA Content (ng/g FW)</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Starch_Content</t>
+  </si>
+  <si>
+    <t>Mock/48h</t>
+  </si>
+  <si>
+    <t>ToMV/48h</t>
+  </si>
+  <si>
+    <t>Mock/72h</t>
+  </si>
+  <si>
+    <t>ToMV/72h</t>
   </si>
 </sst>
 </file>
@@ -461,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,4 +1097,1077 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18.120872829558845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23.703645680982142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14.568566777538617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.600383672259344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.382272607001227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.784448552648829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.186183387392745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.646721181746511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.884080993958662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>29.302049859000032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>73.220199229359423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>92.998253939558282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.647885414018138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22.739614538573065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15.266137045512332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>201.89271410076998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>201.22809394617002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>209.77706393598072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12.181811335721227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14.330719821379972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14.156893656942373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1070.2870740298745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>376.42352043292459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>522.58057714989161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>40.744713196398479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>31.46231010204869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>21.406714568681156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>315.18663135272305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>210.71516799708496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>326.26874136779611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>27.364053144047336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42.154116312184449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>95.975312321915993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1071.6929986721079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>330.4479638858482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>334.82345405296508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18.120872829558845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23.703645680982142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14.568566777538617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.600383672259344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.382272607001227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.784448552648829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.186183387392745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.646721181746511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.884080993958662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>29.302049859000032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>73.220199229359423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>92.998253939558282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.647885414018138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22.739614538573065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15.266137045512332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>201.89271410076998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>201.22809394617002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>209.77706393598072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12.181811335721227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14.330719821379972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14.156893656942373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1070.2870740298745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>376.42352043292459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>522.58057714989161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>40.744713196398479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>31.46231010204869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>21.406714568681156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>315.18663135272305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>210.71516799708496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>326.26874136779611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>27.364053144047336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42.154116312184449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>95.975312321915993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1071.6929986721079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>330.4479638858482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>334.82345405296508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>